--- a/user_list.xlsx
+++ b/user_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t xml:space="preserve">last_name (RU)</t>
   </si>
@@ -261,28 +261,28 @@
  2hR6AVqw6fHGOgq6ABS0AMWJV6Cn0UUAFFFFABRRRQAUUUUAFFFFAH//2Q==</t>
   </si>
   <si>
+    <t xml:space="preserve">company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">співробітник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не співробітник</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">співробітник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не співробітник</t>
   </si>
   <si>
     <t xml:space="preserve">Company 02</t>
@@ -320,7 +320,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +370,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -457,7 +463,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,14 +492,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,11 +512,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,7 +773,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -947,8 +957,9 @@
       <c r="W2" s="6" t="n">
         <v>19910520</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>40</v>
+      <c r="X2" s="7" t="str">
+        <f aca="false">'list of data'!D5</f>
+        <v>M</v>
       </c>
       <c r="Y2" s="8" t="n">
         <v>45766</v>
@@ -976,7 +987,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1160,8 +1171,9 @@
       <c r="W2" s="6" t="n">
         <v>19910520</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>40</v>
+      <c r="X2" s="9" t="str">
+        <f aca="false">'list of data'!D5</f>
+        <v>M</v>
       </c>
       <c r="Y2" s="8" t="n">
         <v>45766</v>
@@ -1189,7 +1201,7 @@
   <dimension ref="B3:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1201,77 +1213,77 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>56</v>
       </c>
     </row>
